--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationDispenseEncounter.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationDispenseEncounter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="317">
   <si>
     <t>Path</t>
   </si>
@@ -319,21 +319,21 @@
     <t>MedicationDispense.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -342,17 +342,10 @@
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -603,9 +596,6 @@
   </si>
   <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -2142,7 +2132,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2161,15 +2151,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2206,14 +2198,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>102</v>
@@ -2237,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2252,7 +2246,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2271,16 +2265,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2330,7 +2324,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2362,7 +2356,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2385,13 +2379,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2442,7 +2436,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2460,13 +2454,13 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2474,7 +2468,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2497,13 +2491,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2554,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2572,10 +2566,10 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
@@ -2586,7 +2580,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2612,13 +2606,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2644,14 +2638,14 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
       </c>
@@ -2668,7 +2662,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2686,13 +2680,13 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -2700,7 +2694,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2723,13 +2717,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2756,14 +2750,14 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
@@ -2780,7 +2774,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2801,7 +2795,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>41</v>
@@ -2812,7 +2806,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2835,16 +2829,16 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2870,14 +2864,14 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
       </c>
@@ -2894,7 +2888,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>52</v>
@@ -2912,21 +2906,21 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2949,16 +2943,16 @@
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3008,7 +3002,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3026,21 +3020,21 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3063,13 +3057,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3120,7 +3114,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3138,10 +3132,10 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3152,7 +3146,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3175,13 +3169,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3232,7 +3226,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3253,10 +3247,10 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3264,7 +3258,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3287,16 +3281,16 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3346,7 +3340,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3358,16 +3352,16 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3401,13 +3395,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3458,7 +3452,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3479,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3490,11 +3484,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3513,16 +3507,16 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3572,7 +3566,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3593,7 +3587,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3604,11 +3598,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3627,16 +3621,16 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3686,7 +3680,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3718,14 +3712,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>52</v>
@@ -3743,13 +3737,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3800,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>52</v>
@@ -3815,13 +3809,13 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -3832,7 +3826,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3855,13 +3849,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3912,7 +3906,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3930,10 +3924,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -3944,7 +3938,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3967,16 +3961,16 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4026,7 +4020,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4044,21 +4038,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4081,13 +4075,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4114,13 +4108,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4138,7 +4132,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4159,18 +4153,18 @@
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4193,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4250,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4271,18 +4265,18 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4305,13 +4299,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4362,7 +4356,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4383,18 +4377,18 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4417,13 +4411,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4474,7 +4468,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4495,18 +4489,18 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4529,13 +4523,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4586,7 +4580,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4604,21 +4598,21 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4641,13 +4635,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4698,7 +4692,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4719,18 +4713,18 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4753,13 +4747,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4810,7 +4804,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4831,7 +4825,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -4842,7 +4836,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4865,13 +4859,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4922,7 +4916,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4940,21 +4934,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4977,16 +4971,16 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5036,7 +5030,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5057,7 +5051,7 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5068,7 +5062,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5091,13 +5085,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5148,7 +5142,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5160,7 +5154,7 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
@@ -5169,7 +5163,7 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5180,7 +5174,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5203,13 +5197,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5260,7 +5254,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5281,7 +5275,7 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5292,11 +5286,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5315,16 +5309,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5374,7 +5368,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5395,7 +5389,7 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5406,11 +5400,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5429,16 +5423,16 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5488,7 +5482,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5520,7 +5514,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5543,13 +5537,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5600,7 +5594,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>52</v>
@@ -5621,7 +5615,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5632,7 +5626,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5655,13 +5649,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5688,13 +5682,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5712,7 +5706,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5733,18 +5727,18 @@
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5767,13 +5761,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5800,13 +5794,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5824,7 +5818,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5845,7 +5839,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -5856,7 +5850,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5879,13 +5873,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5936,7 +5930,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5957,7 +5951,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -5968,11 +5962,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5991,13 +5985,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6048,7 +6042,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6069,7 +6063,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6080,7 +6074,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6103,13 +6097,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6160,7 +6154,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6178,10 +6172,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6192,7 +6186,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6215,13 +6209,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6272,7 +6266,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6290,10 +6284,10 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6304,7 +6298,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6327,16 +6321,16 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6386,7 +6380,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6407,7 +6401,7 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
